--- a/biology/Botanique/Arbre_à_loques/Arbre_à_loques.xlsx
+++ b/biology/Botanique/Arbre_à_loques/Arbre_à_loques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_loques</t>
+          <t>Arbre_à_loques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un arbre à loques (ou arbre aux loques, ou arbre à chiffons) est un arbre sur lequel ont été fixés des morceaux de vêtements, en général pour obtenir la guérison d'une maladie. Comme pour l'arbre à clous, cette pratique est votive.
-L'origine de cette pratique, une forme de dendrolâtrie, remonte aux cultes païens[1].
-On trouve des arbres à loques dans le nord de la France, en Belgique et en Irlande notamment[2].
+L'origine de cette pratique, une forme de dendrolâtrie, remonte aux cultes païens.
+On trouve des arbres à loques dans le nord de la France, en Belgique et en Irlande notamment.
 La coutume d'orner des arbres de cette façon est aussi très répandue en Afrique et en Asie.
-La pratique de clouer à l'arbre des morceaux de tissu repose sur la croyance selon laquelle la maladie est ainsi transférée à l'arbre et que la souffrance s'enfonce dans l'arbre au lieu de s'incruster dans le corps du malade. Une autre pratique consistant à nouer le tissu autour du tronc suppose quant à elle que l'arbre joue un rôle d'intercesseur auprès du dieu lieur pour obtenir que le corps noué par la maladie en soit délivré[1]. 
+La pratique de clouer à l'arbre des morceaux de tissu repose sur la croyance selon laquelle la maladie est ainsi transférée à l'arbre et que la souffrance s'enfonce dans l'arbre au lieu de s'incruster dans le corps du malade. Une autre pratique consistant à nouer le tissu autour du tronc suppose quant à elle que l'arbre joue un rôle d'intercesseur auprès du dieu lieur pour obtenir que le corps noué par la maladie en soit délivré. 
 </t>
         </is>
       </c>
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_loques</t>
+          <t>Arbre_à_loques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,11 @@
           <t>Picardie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Senarpont, l'arbre à loques est associé à saint Claude. Les gens prient ce saint et déposent un vêtement ayant été en contact avec une partie malade pour espérer une guérison. La croyance remonte à 1499 quand une épidémie de peste s'est arrêtée à cet endroit alors que le village voisin de Neuville-Coppegueule était décimé par la maladie. Jean d'Evrard de Lanan, conseiller et chambellan du roi Louis XII, fait alors construire une chapelle pour abriter la statue du saint. La chapelle a été détruite par les guerres mais un petit oratoire subsiste. Les souches des ormes centenaires sont encore utilisées pour le dépôt de vêtements[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Senarpont, l'arbre à loques est associé à saint Claude. Les gens prient ce saint et déposent un vêtement ayant été en contact avec une partie malade pour espérer une guérison. La croyance remonte à 1499 quand une épidémie de peste s'est arrêtée à cet endroit alors que le village voisin de Neuville-Coppegueule était décimé par la maladie. Jean d'Evrard de Lanan, conseiller et chambellan du roi Louis XII, fait alors construire une chapelle pour abriter la statue du saint. La chapelle a été détruite par les guerres mais un petit oratoire subsiste. Les souches des ormes centenaires sont encore utilisées pour le dépôt de vêtements.
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_loques</t>
+          <t>Arbre_à_loques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,11 +560,13 @@
           <t>Nord-Pas-de-Calais</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À Bailleul, le « tilleul des malades », au lieudit de Ziekelinde, est aussi un arbre à loques.
 À Outtersteene, dans le Nord, hameau près de Bailleul.
-À Hasnon, dans le Nord près de Saint-Amand-les-Eaux, se trouve un arbre à loques qui se trouvait dans la forêt de Raismes et a été déplacé en 1980 lors la construction de l'A23. En 2020, lors de la pandémie de Covid des masques sont accrochés à ses branches[4].
+À Hasnon, dans le Nord près de Saint-Amand-les-Eaux, se trouve un arbre à loques qui se trouvait dans la forêt de Raismes et a été déplacé en 1980 lors la construction de l'A23. En 2020, lors de la pandémie de Covid des masques sont accrochés à ses branches.
 </t>
         </is>
       </c>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arbre_%C3%A0_loques</t>
+          <t>Arbre_à_loques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,9 +595,11 @@
           <t>Bretagne</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À Questembert, dans le Morbihan, se trouve le chêne du Hulo (avec une petite statue de la vierge). Encore aujourd'hui, certains viennent y accrocher des vêtements d'enfants[2],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À Questembert, dans le Morbihan, se trouve le chêne du Hulo (avec une petite statue de la vierge). Encore aujourd'hui, certains viennent y accrocher des vêtements d'enfants,.
 </t>
         </is>
       </c>
